--- a/wordtest.xlsx
+++ b/wordtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zz\PycharmProjects\IQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27056409-0ACD-4D2B-8334-4E8DAA96997D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECEE96-5761-4DE3-BD05-2284904F1C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="6828" windowWidth="23256" windowHeight="12576" tabRatio="458" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AR$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AR$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="117">
-  <si>
-    <t>尺寸</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>武军</t>
-  </si>
-  <si>
     <t>外观</t>
   </si>
   <si>
@@ -53,16 +47,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>卡尺/直尺</t>
-  </si>
-  <si>
-    <t>电机驱动功能
-电机霍尔，编码器功能。
-EtherCAT网络通讯功能
-使能口功能
-IO输入输出功能</t>
-  </si>
-  <si>
     <t>全检</t>
   </si>
   <si>
@@ -87,54 +71,6 @@
     <t>单证资料</t>
   </si>
   <si>
-    <t>外观无明显划伤，磕碰
-丝印标签正清晰</t>
-  </si>
-  <si>
-    <t>在每PCS产品外增加包装保护，防止产品在运输过程中受损</t>
-  </si>
-  <si>
-    <t>目视检查产品包装是否满足要求，产品是否受损。</t>
-  </si>
-  <si>
-    <t>刘海龙</t>
-  </si>
-  <si>
-    <t>目视检查产品外观和标签。</t>
-  </si>
-  <si>
-    <t>目视检查产品产品标签。</t>
-  </si>
-  <si>
-    <t>段美琼</t>
-  </si>
-  <si>
-    <t>外观无明显划伤，不能有锡渣锡珠等残留物。
-没有短路、多锡，错件、撞件、冷焊、空焊等焊接问题
-丝印标签正清晰</t>
-  </si>
-  <si>
-    <t>外观无明显划伤，磕碰
-丝印标签清晰</t>
-  </si>
-  <si>
-    <t>目视检查工控机外观和标签。</t>
-  </si>
-  <si>
-    <t>卡尺/支持</t>
-  </si>
-  <si>
-    <t>规格型号： MVP-6002
-品牌：凌华</t>
-  </si>
-  <si>
-    <t>目视检查工控机产品标签。</t>
-  </si>
-  <si>
-    <t>规格型号： PCIe-8334
-品牌：凌华</t>
-  </si>
-  <si>
     <t>王垒</t>
   </si>
   <si>
@@ -146,10 +82,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>检验项目1接收标准</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -311,31 +243,11 @@
   </si>
   <si>
     <t>检验项目7抽样方案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目视检查PCBA外观。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>一般检验水平：II
 AQL=2.5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据附图，用卡尺测量外观尺寸</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观尺寸和孔位需和附图一致。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>见附表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每批检验一次</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -363,72 +275,20 @@
 规格型号：3SJ101-3802-V1.3</t>
   </si>
   <si>
-    <t>产品包装</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品描述需要与附表内容一致</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目视检查变压器外观和标签。</t>
-  </si>
-  <si>
-    <t>根据附表技术图纸，检查画圈的关键尺寸，关键尺寸需和图纸一致</t>
-  </si>
-  <si>
-    <t>规格型号： SHXW -1.0kVA-S
-品牌：博微智能</t>
-  </si>
-  <si>
-    <t>目视检查变压器产品标签。</t>
-  </si>
-  <si>
-    <t>目视检查UPS外观和标签。</t>
-  </si>
-  <si>
-    <t>规格型号；UBC10E.241
-品牌：PULS</t>
-  </si>
-  <si>
-    <t>目视检查UPS产品标签。</t>
-  </si>
-  <si>
-    <t>规格型号：  BSV-24N-W
-品牌： PATLITE</t>
-  </si>
-  <si>
-    <t>根据附图，用卡尺检验变压器的关键尺寸。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>外观无明显划伤，不能有锡渣锡珠等残留物。
 没有短路，多锡，错件、撞件、冷焊、空焊等焊接问题
 丝印标签正确清晰</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>外观无明显划伤，磕碰
-丝印标签正清晰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>检验项目8</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>需提供检验合格证明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>目视检查产品包装</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>每批次产品需提供合格证明</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>每批次产品需提供生产厂家出厂检验表</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -437,10 +297,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>目视检查产品包装是否满足要求，产品是否受损。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -452,25 +308,8 @@
     <t>T2.docx</t>
   </si>
   <si>
-    <t>T3.docx</t>
-  </si>
-  <si>
-    <t>T4.docx</t>
-  </si>
-  <si>
-    <t>T5.docx</t>
-  </si>
-  <si>
-    <t>T6.docx</t>
-  </si>
-  <si>
-    <t>T7.docx</t>
-  </si>
-  <si>
-    <t>T8.docx</t>
-  </si>
-  <si>
-    <t>T9.docx</t>
+    <t>尺寸</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -647,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,12 +664,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1078,23 +911,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1452,945 +1276,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A10"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="4"/>
-    <col min="2" max="2" width="8.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="48.875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="26.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="40.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9" style="4" customWidth="1"/>
-    <col min="14" max="14" width="30.25" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="55.125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="25.5" style="4" customWidth="1"/>
-    <col min="18" max="18" width="32.375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9" style="4" customWidth="1"/>
-    <col min="20" max="20" width="38.125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="42.125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="21.875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="50.25" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9" style="4" customWidth="1"/>
-    <col min="26" max="26" width="43.375" style="4" customWidth="1"/>
-    <col min="27" max="27" width="15.375" style="4" customWidth="1"/>
-    <col min="28" max="28" width="59.125" style="4" customWidth="1"/>
-    <col min="29" max="29" width="19" style="4" customWidth="1"/>
-    <col min="30" max="30" width="51.875" style="4" customWidth="1"/>
-    <col min="31" max="31" width="9" style="4" customWidth="1"/>
-    <col min="32" max="32" width="22" style="4" customWidth="1"/>
-    <col min="33" max="33" width="10.875" style="4" customWidth="1"/>
-    <col min="34" max="34" width="38.375" style="4" customWidth="1"/>
-    <col min="35" max="35" width="9" style="4" customWidth="1"/>
-    <col min="36" max="36" width="28" style="4" customWidth="1"/>
-    <col min="37" max="37" width="9" style="4" customWidth="1"/>
-    <col min="38" max="38" width="29.125" style="4" customWidth="1"/>
-    <col min="39" max="39" width="8.875" style="4"/>
-    <col min="40" max="40" width="33.875" style="4" customWidth="1"/>
-    <col min="41" max="41" width="9" style="4" customWidth="1"/>
-    <col min="42" max="42" width="31" style="4" customWidth="1"/>
-    <col min="43" max="43" width="18.25" style="4" customWidth="1"/>
-    <col min="44" max="44" width="30.5" style="4" customWidth="1"/>
-    <col min="45" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="48.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="55.125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="25.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9" style="2" customWidth="1"/>
+    <col min="20" max="20" width="38.125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="42.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="21.875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="50.25" style="2" customWidth="1"/>
+    <col min="25" max="25" width="9" style="2" customWidth="1"/>
+    <col min="26" max="26" width="43.375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="15.375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="59.125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="19" style="2" customWidth="1"/>
+    <col min="30" max="30" width="51.875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="9" style="2" customWidth="1"/>
+    <col min="32" max="32" width="22" style="2" customWidth="1"/>
+    <col min="33" max="33" width="10.875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="38.375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="9" style="2" customWidth="1"/>
+    <col min="36" max="36" width="28" style="2" customWidth="1"/>
+    <col min="37" max="37" width="9" style="2" customWidth="1"/>
+    <col min="38" max="38" width="29.125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="8.875" style="2"/>
+    <col min="40" max="40" width="33.875" style="2" customWidth="1"/>
+    <col min="41" max="41" width="9" style="2" customWidth="1"/>
+    <col min="42" max="42" width="31" style="2" customWidth="1"/>
+    <col min="43" max="43" width="18.25" style="2" customWidth="1"/>
+    <col min="44" max="44" width="30.5" style="2" customWidth="1"/>
+    <col min="45" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AP1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AR1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AS1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="W2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>11</v>
+      <c r="AB2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="V3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="W3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" s="4" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="AF3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB8" s="2"/>
-      <c r="AD8" s="4"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:AR10" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:AR3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
